--- a/data_process/xlsx/jongno_B2_processed.xlsx
+++ b/data_process/xlsx/jongno_B2_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,14 +491,34 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>create_time</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>lng</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>naver_place_id</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>바인드 현대시티아울렛동대문점</t>
+          <t>슈프림</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -508,7 +528,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>캐주얼웨어</t>
+          <t>패션</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -517,7 +537,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>472</v>
+        <v>97</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -531,12 +551,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>장충단로13길</t>
+          <t>장충단로</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>20 B1 바인드</t>
+          <t>280 지하상가 4-73호</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -546,19 +566,33 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0507-1462-2504</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1122705877/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142490940</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>127.0096807</v>
+      </c>
+      <c r="O2" t="n">
+        <v>37.5691968</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1122705877</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>모놀로그 인사점</t>
+          <t>여성빅사이즈 지존 두타</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -568,7 +602,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>보세의류</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -577,7 +611,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>472</v>
+        <v>97</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,17 +620,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>인사동</t>
+          <t>장충단로</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>165-6</t>
+          <t>275 두타 3층 14호</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -606,19 +640,33 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-3398-6014</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/35830762/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142498714</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>127.0087831</v>
+      </c>
+      <c r="O3" t="n">
+        <v>37.5688912</v>
+      </c>
+      <c r="P3" t="n">
+        <v>35830762</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>유니클로 광화문 D-TOWER점</t>
+          <t>운선제한복 종로점</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -628,16 +676,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>캐주얼웨어</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -651,12 +699,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>종로3길</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>17 D타워 광화문 1~2층</t>
+          <t>199</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -666,19 +714,33 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>02-2251-8202</t>
+          <t>02-742-2097</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/20136228/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142503973</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>126.9997707</v>
+      </c>
+      <c r="O4" t="n">
+        <v>37.5714395</v>
+      </c>
+      <c r="P4" t="n">
+        <v>20136228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>알라모다 종로점</t>
+          <t>유니클로 광화문 D-TOWER점</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -688,7 +750,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>캐주얼웨어</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -701,22 +763,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>종로3길</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17 D타워 광화문 1~2층</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -726,19 +788,33 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-2251-8202</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/37815201/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142509817</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>126.9789694</v>
+      </c>
+      <c r="O5" t="n">
+        <v>37.5710184</v>
+      </c>
+      <c r="P5" t="n">
+        <v>37815201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>버윅 서울파이낸스센터점</t>
+          <t>Neared</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -748,12 +824,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>수제화</t>
+          <t>구제의류</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -761,22 +837,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>돈화문로11다길</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>26 1층 Neared</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -786,19 +862,33 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1343-6645</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1065506926/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142515318</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>126.9905702</v>
+      </c>
+      <c r="O6" t="n">
+        <v>37.5734314</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1065506926</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ABC마트 GS 동대문두타몰점</t>
+          <t>알라모다 종로점</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -808,35 +898,35 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>신발</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>121-1 2, 3층</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -846,19 +936,33 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-766-4285</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/36342751/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142521022</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>126.9910141</v>
+      </c>
+      <c r="O7" t="n">
+        <v>37.5706494</v>
+      </c>
+      <c r="P7" t="n">
+        <v>36342751</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>에이스아웃도어</t>
+          <t>아티플로 맞춤정장예복 종로본점</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -868,16 +972,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>등산,아웃도어</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -896,7 +1000,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>224-1 2층</t>
+          <t>122 3~4층</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -906,19 +1010,33 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>02-2247-8848</t>
+          <t>0507-1324-2862</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1311763017/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142526240</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>126.9911312</v>
+      </c>
+      <c r="O8" t="n">
+        <v>37.5700749</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1311763017</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>종로맞춤정장 에반테일러</t>
+          <t>버윅 서울파이낸스센터점</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -928,16 +1046,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>수제화</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -946,17 +1064,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>세종대로</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>183 효성 주얼리타운 지하1층 J350 에반테일러</t>
+          <t>136 파이낸스빌딩 B1 102호</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -966,19 +1084,33 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>02-742-3701</t>
+          <t>02-318-0511</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1160519662/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142531784</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>126.9782701</v>
+      </c>
+      <c r="O9" t="n">
+        <v>37.5684246</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1160519662</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>운선제한복 종로점</t>
+          <t>바인드 현대시티아울렛동대문점</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -988,16 +1120,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>한복</t>
+          <t>캐주얼웨어</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>723</v>
+        <v>53</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1006,17 +1138,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>장충단로13길</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>20 B1 바인드</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1026,19 +1158,33 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>02-742-2097</t>
+          <t>0507-1462-2504</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/162326769/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142536916</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>127.0076665</v>
+      </c>
+      <c r="O10" t="n">
+        <v>37.5687346</v>
+      </c>
+      <c r="P10" t="n">
+        <v>162326769</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Neared</t>
+          <t>비스포크라인 맞춤정장예복 종로본점</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1048,16 +1194,16 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>구제의류</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>93</v>
+        <v>472</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1071,12 +1217,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>돈화문로11다길</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>26 1층 Neared</t>
+          <t>183 효성주얼리시티 지하2층 S32, 33, 34호</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1086,19 +1232,33 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0507-1343-6645</t>
+          <t>0507-1440-4966</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/38018816/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142542299</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>126.99832</v>
+      </c>
+      <c r="O11" t="n">
+        <v>37.571447</v>
+      </c>
+      <c r="P11" t="n">
+        <v>38018816</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>아티플로 맞춤정장예복 종로본점</t>
+          <t>반니비스포크 명동점</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1113,11 +1273,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>93</v>
+        <v>988</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1126,17 +1286,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>삼일대로</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>122 3~4층</t>
+          <t>363 장교빌딩 지하1층</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1146,19 +1306,33 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0507-1324-2862</t>
+          <t>02-774-8080</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/13486664/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142547453</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>126.9870535</v>
+      </c>
+      <c r="O12" t="n">
+        <v>37.5671779</v>
+      </c>
+      <c r="P12" t="n">
+        <v>13486664</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>원더플레이스 두타몰점</t>
+          <t>오니츠카타이거 동대문점</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1168,16 +1342,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>종합패션</t>
+          <t>신발</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1196,7 +1370,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>275 두산타워 지하 1층</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1206,19 +1380,33 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-3398-5112</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/31016186/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142552589</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>127.0087831</v>
+      </c>
+      <c r="O13" t="n">
+        <v>37.5688912</v>
+      </c>
+      <c r="P13" t="n">
+        <v>31016186</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>옷맛집</t>
+          <t>종로맞춤정장 에반테일러</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1228,16 +1416,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1251,12 +1439,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>수표로28길</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>29 1층 옷맛집</t>
+          <t>183 효성 주얼리타운 지하1층 J350 에반테일러</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1266,19 +1454,33 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0507-1355-3867</t>
+          <t>02-742-3701</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/966470951/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142557720</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>126.99832</v>
+      </c>
+      <c r="O14" t="n">
+        <v>37.571447</v>
+      </c>
+      <c r="P14" t="n">
+        <v>966470951</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>아르마리오 종로점</t>
+          <t>실크루트</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1288,16 +1490,16 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>232</v>
+        <v>728</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1316,7 +1518,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>109 2층 아르마리오 종로점</t>
+          <t>183 효성주얼리시티 2층 91호</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1326,19 +1528,33 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0507-1406-3123</t>
+          <t>02-2273-9285</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/20027434/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142562921</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>126.99832</v>
+      </c>
+      <c r="O15" t="n">
+        <v>37.571447</v>
+      </c>
+      <c r="P15" t="n">
+        <v>20027434</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>끌리는남자</t>
+          <t>동대문빅사이즈 아이몽 밀리오레</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1348,16 +1564,16 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>남성의류</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>677</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1366,17 +1582,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>장충단로</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>109 2층 아르마리오 종로점</t>
+          <t>263 밀리오레 1층 44호</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1386,19 +1602,33 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0507-1406-3123</t>
+          <t>02-3393-2200</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1628485345/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142568095</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>127.0084618</v>
+      </c>
+      <c r="O16" t="n">
+        <v>37.5681191</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1628485345</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>루아앤로니</t>
+          <t>룰루레몬 롯데백화점 명동 스토어</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1408,16 +1638,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>기능성의류</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1426,17 +1656,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>남대문로</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>266 동대문종합시장 B동 5087,5088,5089호</t>
+          <t>81 롯데백화점 본점 3층</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1446,19 +1676,33 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0507-1373-1242</t>
+          <t>0507-1338-3329</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1452434860/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142573277</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>126.9818075</v>
+      </c>
+      <c r="O17" t="n">
+        <v>37.564764</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1452434860</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>로우로우 광장시장점</t>
+          <t>HH vintage</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1468,16 +1712,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>가방,핸드백</t>
+          <t>구제의류</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>38</v>
+        <v>289</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1491,12 +1735,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>대명길</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>266 동대문종합시장 B동 5087,5088,5089호</t>
+          <t>34 지층</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1506,19 +1750,33 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0507-1373-1242</t>
+          <t>0507-1321-5469</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1509146916/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142578387</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>126.9996779</v>
+      </c>
+      <c r="O18" t="n">
+        <v>37.5832058</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1509146916</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>동대문빅사이즈 아이몽 밀리오레</t>
+          <t>에이스아웃도어</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1528,16 +1786,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>등산,아웃도어</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>194</v>
+        <v>625</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1546,17 +1804,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>장충단로</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>263 밀리오레 1층 44호</t>
+          <t>224-1 2층</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1566,19 +1824,33 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>02-3393-2200</t>
+          <t>02-2247-8848</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/11533341/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142583632</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>127.0026386</v>
+      </c>
+      <c r="O19" t="n">
+        <v>37.570757</v>
+      </c>
+      <c r="P19" t="n">
+        <v>11533341</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>은아수</t>
+          <t>로우로우 광장시장점</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1588,16 +1860,16 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>가방,핸드백</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>88</v>
+        <v>625</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1606,17 +1878,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>장충단로</t>
+          <t>창경궁로</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>263 밀리오레 1층 44호</t>
+          <t>88 광장시장 239호</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1626,19 +1898,33 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>02-3393-2200</t>
+          <t>02-2269-2891</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/36336607/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142589412</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>126.9997071</v>
+      </c>
+      <c r="O20" t="n">
+        <v>37.5701125</v>
+      </c>
+      <c r="P20" t="n">
+        <v>36336607</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>연인채</t>
+          <t>돌실나이 인사점 / 창의문화 갤러리 낳이</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1653,11 +1939,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>325</v>
+        <v>194</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1671,12 +1957,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>인사동길</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>183 효성주얼리시티 지하1층 326호</t>
+          <t>35 돌실나이 인사점</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1686,19 +1972,33 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>02-2274-7844</t>
+          <t>0507-1490-2272</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/11572639/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142594680</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>126.9853812</v>
+      </c>
+      <c r="O21" t="n">
+        <v>37.5736055</v>
+      </c>
+      <c r="P21" t="n">
+        <v>11572639</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>비스포크라인 맞춤정장예복 종로본점</t>
+          <t>스파오 현대백화점면세점 동대문점</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1708,16 +2008,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>캐주얼웨어</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>325</v>
+        <v>90</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1726,17 +2026,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>장충단로</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>183 효성주얼리시티 지하2층 S32, 33, 34호</t>
+          <t>275 10층</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1746,19 +2046,33 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0507-1440-4966</t>
+          <t>02-3668-8204</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1965923383/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142599868</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>127.0087831</v>
+      </c>
+      <c r="O22" t="n">
+        <v>37.5688912</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1965923383</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>잉글랜드테일러</t>
+          <t>연인채</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1768,16 +2082,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>969</v>
+        <v>330</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1791,12 +2105,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>김상옥로</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>30 한국기독교연합회관 b1</t>
+          <t>183 효성주얼리시티 지하1층 326호</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1806,19 +2120,33 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0507-1407-3713</t>
+          <t>02-2274-7844</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/38500829/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142605037</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>126.99832</v>
+      </c>
+      <c r="O23" t="n">
+        <v>37.571447</v>
+      </c>
+      <c r="P23" t="n">
+        <v>38500829</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>동대문153</t>
+          <t>신자매만물상 대학로점</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1833,11 +2161,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>405</v>
+        <v>330</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1851,12 +2179,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>창경궁로</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>266 A동 5층 5174호, 5175호, B동 5213호, 5214호</t>
+          <t>234 동화빌딩 1층 104호</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1866,19 +2194,33 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0507-1355-5364</t>
+          <t>0507-1345-7406</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1891743621/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142610666</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>126.9985547</v>
+      </c>
+      <c r="O24" t="n">
+        <v>37.5824974</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1891743621</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>슬로우스테디클럽 살롱 안국점</t>
+          <t>트레일헤드 종로5가점</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1888,16 +2230,16 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>캐주얼웨어</t>
+          <t>등산,아웃도어</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1911,12 +2253,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>율곡로</t>
+          <t>동호로38길</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>84 가든타워 2층</t>
+          <t>24 1층</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1926,19 +2268,33 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>02-725-1301</t>
+          <t>070-4118-9714</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/35592973/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142616439</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>127.003586</v>
+      </c>
+      <c r="O25" t="n">
+        <v>37.5703514</v>
+      </c>
+      <c r="P25" t="n">
+        <v>35592973</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>여성빅사이즈 지존 두타</t>
+          <t>슬로우스테디클럽 살롱 안국점</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1948,16 +2304,16 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>캐주얼웨어</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1966,17 +2322,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>장충단로</t>
+          <t>율곡로</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>275 두타 3층 14호</t>
+          <t>84 가든타워 2층</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1986,19 +2342,33 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>02-3398-6014</t>
+          <t>02-725-1301</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/35896210/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142622286</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>126.9884625</v>
+      </c>
+      <c r="O26" t="n">
+        <v>37.5770962</v>
+      </c>
+      <c r="P26" t="n">
+        <v>35896210</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>메종드라헨느</t>
+          <t>캉골 현대시티아울렛동대문점</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2008,16 +2378,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>패션</t>
+          <t>종합패션</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>259</v>
+        <v>316</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2031,12 +2401,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>세종대로</t>
+          <t>장충단로13길</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>136 지하2층202호</t>
+          <t>20 현대시티아울렛 5층</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2046,19 +2416,33 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0507-1388-1120</t>
+          <t>02-2283-2518</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/38219702/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142627391</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>127.0076665</v>
+      </c>
+      <c r="O27" t="n">
+        <v>37.5687346</v>
+      </c>
+      <c r="P27" t="n">
+        <v>38219702</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>실크루트</t>
+          <t>니트</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2068,16 +2452,16 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>한복</t>
+          <t>구제의류</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2086,17 +2470,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>장충단로</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>183 효성주얼리시티 2층 91호</t>
+          <t>275 5층 20호</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2106,19 +2490,33 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>02-2273-9285</t>
+          <t>010-8693-1735</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1770969263/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142632487</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>127.0087831</v>
+      </c>
+      <c r="O28" t="n">
+        <v>37.5688912</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1770969263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>룰루레몬 롯데백화점 명동 스토어</t>
+          <t>루이비통 롯데백화점본점 롯데백화점본점</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2128,16 +2526,16 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>기능성의류</t>
+          <t>종합패션</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2156,7 +2554,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>81 롯데백화점 본점 3층</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2166,19 +2564,33 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0507-1338-3329</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1814159970/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142637795</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>126.981707</v>
+      </c>
+      <c r="O29" t="n">
+        <v>37.5641952</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1814159970</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>트레일헤드 종로5가점</t>
+          <t>탑텐키즈 현대시티아울렛 동대문점</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2188,16 +2600,16 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>등산,아웃도어</t>
+          <t>유아동복</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>287</v>
+        <v>458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2206,17 +2618,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>동호로38길</t>
+          <t>장충단로13길</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>24 1층</t>
+          <t>20 현대시티타워</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2226,19 +2638,33 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>070-4118-9714</t>
+          <t>02-2283-2842</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1685962752/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142646587</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>127.0076665</v>
+      </c>
+      <c r="O30" t="n">
+        <v>37.5687346</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1685962752</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>크록스 현대시티아울렛동대문점</t>
+          <t>ABC마트 ST 대학로점</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2253,11 +2679,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>289</v>
+        <v>458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2266,17 +2692,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>장충단로13길</t>
+          <t>대학로</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>20 5층 크록스</t>
+          <t>132 에이비씨마트빌딩</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2286,19 +2712,33 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>02-2283-2706</t>
+          <t>02-743-5100</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/749583449/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142652200</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>127.0021216</v>
+      </c>
+      <c r="O31" t="n">
+        <v>37.5830938</v>
+      </c>
+      <c r="P31" t="n">
+        <v>749583449</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>때때롯살롱</t>
+          <t>여성 빅사이즈 하이럭키 밀리오레</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2308,16 +2748,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>한복</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2326,17 +2766,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>수표로28길</t>
+          <t>장충단로</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>21-12</t>
+          <t>263 밀리오레빌딩 3층 222호</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2346,19 +2786,33 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>02-704-1369</t>
+          <t>0507-1368-0264</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1418900451/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142657368</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>127.0084618</v>
+      </c>
+      <c r="O32" t="n">
+        <v>37.5681191</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1418900451</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>금은보화</t>
+          <t>에르메스 롯데면세점본점</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2368,16 +2822,16 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>가방,핸드백</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>554</v>
+        <v>107</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2386,17 +2840,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>인사동길</t>
+          <t>을지로</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>38-1 1층</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2406,19 +2860,33 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>010-3334-9421</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1051802231/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142662613</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>126.9816208</v>
+      </c>
+      <c r="O33" t="n">
+        <v>37.5654272</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1051802231</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ABC마트 ST 대학로점</t>
+          <t>화려한정원</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2428,16 +2896,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>신발</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2451,12 +2919,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>대학로</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>132 에이비씨마트빌딩</t>
+          <t>183 효성주얼리시티 지하1층J045호</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2466,19 +2934,33 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>02-743-5100</t>
+          <t>0507-1443-1379</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/34646936/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142670511</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>126.99832</v>
+      </c>
+      <c r="O34" t="n">
+        <v>37.571447</v>
+      </c>
+      <c r="P34" t="n">
+        <v>34646936</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>슈프림</t>
+          <t>루아앤로니</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2488,16 +2970,16 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>패션</t>
+          <t>패션잡화</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2506,17 +2988,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>장충단로</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>280 지하상가 4-73호</t>
+          <t>266 동대문종합시장 B동 5087,5088,5089호</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2526,13 +3008,27 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1373-1242</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1460908747/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142676258</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>127.0073136</v>
+      </c>
+      <c r="O35" t="n">
+        <v>37.5706765</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1460908747</v>
       </c>
     </row>
     <row r="36">
@@ -2553,11 +3049,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2591,14 +3087,28 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1766622777/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142681306</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>126.9808348</v>
+      </c>
+      <c r="O36" t="n">
+        <v>37.569953</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1766622777</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>젠틀몬스터 롯데백화점 본점</t>
+          <t>플랫폼 플레이스 롯데백화점본점</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2608,7 +3118,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>선글라스</t>
+          <t>캐주얼웨어</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2636,7 +3146,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>81 본점 3층</t>
+          <t>81 6층</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2646,19 +3156,33 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>02-772-3251</t>
+          <t>02-772-3608</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1962833444/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142686478</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>126.9818075</v>
+      </c>
+      <c r="O37" t="n">
+        <v>37.564764</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1962833444</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>반니비스포크 명동점</t>
+          <t>원더플레이스 두타몰점</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2668,16 +3192,16 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>종합패션</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>412</v>
+        <v>9</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2691,12 +3215,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>삼일대로</t>
+          <t>장충단로</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>363 장교빌딩 지하1층</t>
+          <t>275</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2706,19 +3230,33 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>02-774-8080</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1461463872/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142691905</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>127.0087831</v>
+      </c>
+      <c r="O38" t="n">
+        <v>37.5688912</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1461463872</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>에르메스 롯데면세점본점</t>
+          <t>원더플레이스 서울대학로점</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2728,16 +3266,16 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>가방,핸드백</t>
+          <t>캐주얼웨어</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>271</v>
+        <v>935</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2746,17 +3284,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>을지로</t>
+          <t>대명길</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28 1층</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2766,19 +3304,33 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-3673-1012</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1198357254/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142700799</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>126.9998451</v>
+      </c>
+      <c r="O39" t="n">
+        <v>37.5834877</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1198357254</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>로파우사다 인사점</t>
+          <t>수설화 인사동점</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2788,16 +3340,16 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>구제의류</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>106</v>
+        <v>935</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2816,7 +3368,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>15 성보빌딩</t>
+          <t>44 1층 수설화</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2826,19 +3378,33 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>02-722-2317</t>
+          <t>02-6406-0221</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1093197703/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142706513</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>126.9848766</v>
+      </c>
+      <c r="O40" t="n">
+        <v>37.5742648</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1093197703</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ABC마트</t>
+          <t>디엠빈티지 동묘1호점</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2848,16 +3414,16 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>신발</t>
+          <t>구제의류</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2866,17 +3432,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>을지로</t>
+          <t>난계로27길</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>72 1층</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2886,19 +3452,33 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1382-6766</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1392063263/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142712078</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>127.0191927</v>
+      </c>
+      <c r="O41" t="n">
+        <v>37.5726931</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1392063263</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>보니타테일러 종로점</t>
+          <t>레드아이 대학로1호점</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2908,16 +3488,16 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2931,12 +3511,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>대명길</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>5 대학로빌딩 1층 레드아이 대학로점</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2946,19 +3526,33 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>02-743-6622</t>
+          <t>0507-1344-0547</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/32397858/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142717450</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>127.0011668</v>
+      </c>
+      <c r="O42" t="n">
+        <v>37.5835326</v>
+      </c>
+      <c r="P42" t="n">
+        <v>32397858</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>나윤희한복</t>
+          <t>de r geist, de r zeit</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2968,16 +3562,16 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>한복</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2986,17 +3580,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>청계천로</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>121-2</t>
+          <t>216 2층</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3006,19 +3600,33 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0507-1460-1363</t>
+          <t>0507-1380-8102</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1090872502/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142722554</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>127.0016064</v>
+      </c>
+      <c r="O43" t="n">
+        <v>37.5692916</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1090872502</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>샤넬롯데면세점본점</t>
+          <t>크리스탈환타지</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3028,16 +3636,16 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>가방,핸드백</t>
+          <t>패션잡화</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3046,17 +3654,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>을지로</t>
+          <t>인사동길</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>17 1층 크리스탈환타지(Crystal Fantasy)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3066,19 +3674,33 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>080-805-9628</t>
+          <t>02-725-3325</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/37807032/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142728114</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>126.9865181</v>
+      </c>
+      <c r="O44" t="n">
+        <v>37.5722996</v>
+      </c>
+      <c r="P44" t="n">
+        <v>37807032</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>디올 롯데본점 여성</t>
+          <t>젠틀몬스터 롯데백화점 본점</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3088,16 +3710,16 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>종합패션</t>
+          <t>선글라스</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1145</v>
+        <v>195</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3111,12 +3733,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>을지로</t>
+          <t>남대문로</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>30 롯데백화점 1F</t>
+          <t>81 본점 3층</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3126,19 +3748,33 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>02-726-4224</t>
+          <t>02-772-3251</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/36219754/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142733845</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>126.9818075</v>
+      </c>
+      <c r="O45" t="n">
+        <v>37.564764</v>
+      </c>
+      <c r="P45" t="n">
+        <v>36219754</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>비비안웨스트우드 롯데백화점본점 B1</t>
+          <t>리틀그라운드 현대시티아울렛동대문점</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3148,16 +3784,16 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>종합패션</t>
+          <t>유아동복</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1145</v>
+        <v>415</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3171,12 +3807,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>을지로</t>
+          <t>장충단로13길</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20 현대시티아울렛 8층</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3186,19 +3822,33 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-2283-2812</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1785475089/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142738964</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>127.0076665</v>
+      </c>
+      <c r="O46" t="n">
+        <v>37.5687346</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1785475089</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>페리쉬 시청점</t>
+          <t>샤넬롯데면세점본점</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3208,16 +3858,16 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>가방,핸드백</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3231,12 +3881,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>다동길</t>
+          <t>을지로</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3246,19 +3896,33 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>02-414-6646</t>
+          <t>080-805-9628</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1290044166/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142744372</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>126.9816208</v>
+      </c>
+      <c r="O47" t="n">
+        <v>37.5654272</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1290044166</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>원더브라 대학로점</t>
+          <t>디올 롯데본점 여성</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3268,16 +3932,16 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>속옷</t>
+          <t>종합패션</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>20</v>
+        <v>1153</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3286,17 +3950,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>대학로</t>
+          <t>을지로</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>30 롯데백화점 1F</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3306,19 +3970,33 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>02-745-6101</t>
+          <t>02-726-4224</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/36701053/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142749657</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>126.9816208</v>
+      </c>
+      <c r="O48" t="n">
+        <v>37.5654272</v>
+      </c>
+      <c r="P48" t="n">
+        <v>36701053</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>구찌 롯데백화점 본점</t>
+          <t>ABC마트 GS 동대문두타몰점</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3328,7 +4006,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>종합패션</t>
+          <t>신발</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3337,7 +4015,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>75</v>
+        <v>1153</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3351,12 +4029,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>을지로</t>
+          <t>장충단로</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>275 두타몰 지하1층</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3366,19 +4044,33 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>1577-1921</t>
+          <t>02-3398-4230</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1130526048/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142755389</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>127.0087831</v>
+      </c>
+      <c r="O49" t="n">
+        <v>37.5688912</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1130526048</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>니트</t>
+          <t>럭키팩토리</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3388,16 +4080,16 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>구제의류</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3406,17 +4098,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>장충단로</t>
+          <t>대명길</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>275 5층 20호</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3426,19 +4118,33 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>010-8693-1735</t>
+          <t>02-765-7172</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1351500236/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142760604</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>127.0003781</v>
+      </c>
+      <c r="O50" t="n">
+        <v>37.5834961</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1351500236</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>에블린 현대시티아울렛동대문점</t>
+          <t>아르마리오 종로점</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3448,16 +4154,16 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>속옷</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3466,17 +4172,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>장충단로13길</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>20 현대시티아울렛 4층</t>
+          <t>109 2층 아르마리오 종로점</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3486,13 +4192,27 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>02-2283-2423</t>
+          <t>0507-1406-3123</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>https://pcmap.place.naver.com/place/1762728322/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142765771</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:26:06</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>126.9896688</v>
+      </c>
+      <c r="O51" t="n">
+        <v>37.5705722</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1762728322</v>
       </c>
     </row>
   </sheetData>

--- a/data_process/xlsx/jongno_B2_processed.xlsx
+++ b/data_process/xlsx/jongno_B2_processed.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -650,7 +650,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -724,7 +724,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -798,7 +798,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -872,7 +872,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -946,7 +946,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2023-08-27 22:26:06</t>
+          <t>2023-09-05 15:36:06</t>
         </is>
       </c>
       <c r="N51" t="n">

--- a/data_process/xlsx/jongno_B2_processed.xlsx
+++ b/data_process/xlsx/jongno_B2_processed.xlsx
@@ -518,7 +518,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>슈프림</t>
+          <t>운선제한복 종로점</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -528,16 +528,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>패션</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -546,17 +546,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>장충단로</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>280 지하상가 4-73호</t>
+          <t>199</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -566,33 +566,33 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-742-2097</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1122705877/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142490940</t>
+          <t>https://pcmap.place.naver.com/place/20136228/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9999386&amp;y=37.571152&amp;timestamp=202309071811</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>127.0096807</v>
+        <v>126.9997707</v>
       </c>
       <c r="O2" t="n">
-        <v>37.5691968</v>
+        <v>37.5714395</v>
       </c>
       <c r="P2" t="n">
-        <v>1122705877</v>
+        <v>20136228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>여성빅사이즈 지존 두타</t>
+          <t>알라모다 종로점</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -602,16 +602,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -620,17 +620,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>장충단로</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>275 두타 3층 14호</t>
+          <t>121-1 2, 3층</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -640,33 +640,33 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>02-3398-6014</t>
+          <t>02-766-4285</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/35830762/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142498714</t>
+          <t>https://pcmap.place.naver.com/place/36342751/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9910141&amp;y=37.5706494&amp;timestamp=202309071811</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>127.0087831</v>
+        <v>126.9910141</v>
       </c>
       <c r="O3" t="n">
-        <v>37.5688912</v>
+        <v>37.5706494</v>
       </c>
       <c r="P3" t="n">
-        <v>35830762</v>
+        <v>36342751</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>운선제한복 종로점</t>
+          <t>여성빅사이즈 지존 두타</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>한복</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -694,17 +694,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>장충단로</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>275 두타 3층 14호</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -714,33 +714,33 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>02-742-2097</t>
+          <t>02-3398-6014</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/20136228/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142503973</t>
+          <t>https://pcmap.place.naver.com/place/35830762/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00861362000003&amp;y=37.56898874&amp;timestamp=202309071812</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>126.9997707</v>
+        <v>127.0087831</v>
       </c>
       <c r="O4" t="n">
-        <v>37.5714395</v>
+        <v>37.5688912</v>
       </c>
       <c r="P4" t="n">
-        <v>20136228</v>
+        <v>35830762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>유니클로 광화문 D-TOWER점</t>
+          <t>반니비스포크 명동점</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -750,16 +750,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>캐주얼웨어</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -768,17 +768,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>종로3길</t>
+          <t>삼일대로</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>17 D타워 광화문 1~2층</t>
+          <t>363 장교빌딩 지하1층</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -788,33 +788,33 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>02-2251-8202</t>
+          <t>02-774-8080</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37815201/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142509817</t>
+          <t>https://pcmap.place.naver.com/place/13486664/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9870117&amp;y=37.5673094&amp;timestamp=202309071812</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>126.9789694</v>
+        <v>126.9870535</v>
       </c>
       <c r="O5" t="n">
-        <v>37.5710184</v>
+        <v>37.5671779</v>
       </c>
       <c r="P5" t="n">
-        <v>37815201</v>
+        <v>13486664</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Neared</t>
+          <t>미숙이네</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -824,16 +824,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>구제의류</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -847,12 +847,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>돈화문로11다길</t>
+          <t>창경궁로12길</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>26 1층 Neared</t>
+          <t>36 대한별 14호</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -862,33 +862,33 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0507-1343-6645</t>
+          <t>02-2263-1335</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1065506926/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142515318</t>
+          <t>https://pcmap.place.naver.com/place/1698579153/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0000522&amp;y=37.5697364&amp;timestamp=202309071812</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>126.9905702</v>
+        <v>127.0000522</v>
       </c>
       <c r="O6" t="n">
-        <v>37.5734314</v>
+        <v>37.5697364</v>
       </c>
       <c r="P6" t="n">
-        <v>1065506926</v>
+        <v>1698579153</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>알라모다 종로점</t>
+          <t>종로맞춤정장 에반테일러</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -903,11 +903,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>94</v>
+        <v>731</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>121-1 2, 3층</t>
+          <t>183 효성 주얼리타운 지하1층 J350 에반테일러</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -936,27 +936,27 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>02-766-4285</t>
+          <t>02-742-3701</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/36342751/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142521022</t>
+          <t>https://pcmap.place.naver.com/place/966470951/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.998319&amp;y=37.5714479&amp;timestamp=202309071812</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>126.9910141</v>
+        <v>126.99832</v>
       </c>
       <c r="O7" t="n">
-        <v>37.5706494</v>
+        <v>37.571447</v>
       </c>
       <c r="P7" t="n">
-        <v>36342751</v>
+        <v>966470951</v>
       </c>
     </row>
     <row r="8">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1311763017/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142526240</t>
+          <t>https://pcmap.place.naver.com/place/1311763017/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99113292487&amp;y=37.5700586615098&amp;timestamp=202309071812</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1036,7 +1036,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>버윅 서울파이낸스센터점</t>
+          <t>유니클로 광화문 D-TOWER점</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>수제화</t>
+          <t>캐주얼웨어</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>세종대로</t>
+          <t>종로3길</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>136 파이낸스빌딩 B1 102호</t>
+          <t>17 D타워 광화문 1~2층</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1084,33 +1084,33 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>02-318-0511</t>
+          <t>02-2251-8202</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1160519662/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142531784</t>
+          <t>https://pcmap.place.naver.com/place/37815201/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.97887668725667&amp;y=37.57074159109033&amp;timestamp=202309071812</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>126.9782701</v>
+        <v>126.9789694</v>
       </c>
       <c r="O9" t="n">
-        <v>37.5684246</v>
+        <v>37.5710184</v>
       </c>
       <c r="P9" t="n">
-        <v>1160519662</v>
+        <v>37815201</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>바인드 현대시티아울렛동대문점</t>
+          <t>에이스아웃도어</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1120,16 +1120,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>캐주얼웨어</t>
+          <t>등산,아웃도어</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53</v>
+        <v>633</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1138,17 +1138,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>장충단로13길</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20 B1 바인드</t>
+          <t>224-1 2층</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1158,33 +1158,33 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0507-1462-2504</t>
+          <t>02-2247-8848</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/162326769/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142536916</t>
+          <t>https://pcmap.place.naver.com/place/11533341/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0026432&amp;y=37.5707802&amp;timestamp=202309071812</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>127.0076665</v>
+        <v>127.0026386</v>
       </c>
       <c r="O10" t="n">
-        <v>37.5687346</v>
+        <v>37.570757</v>
       </c>
       <c r="P10" t="n">
-        <v>162326769</v>
+        <v>11533341</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>비스포크라인 맞춤정장예복 종로본점</t>
+          <t>슈프림</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>패션</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>472</v>
+        <v>102</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1212,17 +1212,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>장충단로</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>183 효성주얼리시티 지하2층 S32, 33, 34호</t>
+          <t>280 지하상가 4-73호</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1232,33 +1232,33 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0507-1440-4966</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/38018816/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142542299</t>
+          <t>https://pcmap.place.naver.com/place/1122705877/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0096807&amp;y=37.5691968&amp;timestamp=202309071812</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>126.99832</v>
+        <v>127.0096807</v>
       </c>
       <c r="O11" t="n">
-        <v>37.571447</v>
+        <v>37.5691968</v>
       </c>
       <c r="P11" t="n">
-        <v>38018816</v>
+        <v>1122705877</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>반니비스포크 명동점</t>
+          <t>Neared</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1268,16 +1268,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>구제의류</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>988</v>
+        <v>95</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1286,17 +1286,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>삼일대로</t>
+          <t>돈화문로11다길</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>363 장교빌딩 지하1층</t>
+          <t>26 1층 Neared</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1306,33 +1306,33 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>02-774-8080</t>
+          <t>0507-1343-6645</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13486664/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142547453</t>
+          <t>https://pcmap.place.naver.com/place/1065506926/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.990552&amp;y=37.573448&amp;timestamp=202309071812</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>126.9870535</v>
+        <v>126.9905702</v>
       </c>
       <c r="O12" t="n">
-        <v>37.5671779</v>
+        <v>37.5734314</v>
       </c>
       <c r="P12" t="n">
-        <v>13486664</v>
+        <v>1065506926</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>오니츠카타이거 동대문점</t>
+          <t>비스포크라인 맞춤정장예복 종로본점</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1342,16 +1342,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>신발</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>273</v>
+        <v>1005</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1360,17 +1360,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>장충단로</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>275 두산타워 지하 1층</t>
+          <t>183 효성주얼리시티 지하2층 S32, 33, 34호</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1380,33 +1380,33 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>02-3398-5112</t>
+          <t>0507-1440-4966</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/31016186/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142552589</t>
+          <t>https://pcmap.place.naver.com/place/38018816/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9983924&amp;y=37.5714459&amp;timestamp=202309071812</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>127.0087831</v>
+        <v>126.99832</v>
       </c>
       <c r="O13" t="n">
-        <v>37.5688912</v>
+        <v>37.571447</v>
       </c>
       <c r="P13" t="n">
-        <v>31016186</v>
+        <v>38018816</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>종로맞춤정장 에반테일러</t>
+          <t>쌤소나이트 현대시티아울렛동대문점</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1416,16 +1416,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>가방,핸드백</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1434,17 +1434,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>장충단로13길</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>183 효성 주얼리타운 지하1층 J350 에반테일러</t>
+          <t>20 현대시티아울렛 지하 1층</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1454,33 +1454,33 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>02-742-3701</t>
+          <t>02-2283-2327</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/966470951/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142557720</t>
+          <t>https://pcmap.place.naver.com/place/38219687/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0076665&amp;y=37.5687346&amp;timestamp=202309071812</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>126.99832</v>
+        <v>127.0076665</v>
       </c>
       <c r="O14" t="n">
-        <v>37.571447</v>
+        <v>37.5687346</v>
       </c>
       <c r="P14" t="n">
-        <v>966470951</v>
+        <v>38219687</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>실크루트</t>
+          <t>연인채</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>728</v>
+        <v>334</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>183 효성주얼리시티 2층 91호</t>
+          <t>183 효성주얼리시티 지하1층 326호</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1528,17 +1528,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>02-2273-9285</t>
+          <t>02-2274-7844</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/20027434/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142562921</t>
+          <t>https://pcmap.place.naver.com/place/38500829/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99832&amp;y=37.571447&amp;timestamp=202309071812</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1548,13 +1548,13 @@
         <v>37.571447</v>
       </c>
       <c r="P15" t="n">
-        <v>20027434</v>
+        <v>38500829</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>동대문빅사이즈 아이몽 밀리오레</t>
+          <t>디올 롯데본점 여성</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1564,16 +1564,16 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>종합패션</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1587,12 +1587,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>장충단로</t>
+          <t>을지로</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>263 밀리오레 1층 44호</t>
+          <t>30 롯데백화점 1F</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1602,33 +1602,33 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>02-3393-2200</t>
+          <t>02-726-4224</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1628485345/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142568095</t>
+          <t>https://pcmap.place.naver.com/place/36701053/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9816208&amp;y=37.5654272&amp;timestamp=202309071812</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>127.0084618</v>
+        <v>126.9816208</v>
       </c>
       <c r="O16" t="n">
-        <v>37.5681191</v>
+        <v>37.5654272</v>
       </c>
       <c r="P16" t="n">
-        <v>1628485345</v>
+        <v>36701053</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>룰루레몬 롯데백화점 명동 스토어</t>
+          <t>송동수한복</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1638,16 +1638,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>기능성의류</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1656,17 +1656,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>남대문로</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>81 롯데백화점 본점 3층</t>
+          <t>183 효성주얼리시티 지하 1층 J 371호</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1676,33 +1676,33 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0507-1338-3329</t>
+          <t>02-2265-8560</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1452434860/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142573277</t>
+          <t>https://pcmap.place.naver.com/place/13526668/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99832&amp;y=37.571447&amp;timestamp=202309071812</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>126.9818075</v>
+        <v>126.99832</v>
       </c>
       <c r="O17" t="n">
-        <v>37.564764</v>
+        <v>37.571447</v>
       </c>
       <c r="P17" t="n">
-        <v>1452434860</v>
+        <v>13526668</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HH vintage</t>
+          <t>로우로우 광장시장점</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1712,16 +1712,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>구제의류</t>
+          <t>가방,핸드백</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>289</v>
+        <v>197</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1735,12 +1735,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>대명길</t>
+          <t>창경궁로</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>34 지층</t>
+          <t>88 광장시장 239호</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1750,33 +1750,33 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0507-1321-5469</t>
+          <t>02-2269-2891</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1509146916/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142578387</t>
+          <t>https://pcmap.place.naver.com/place/36336607/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9989641&amp;y=37.5703187&amp;timestamp=202309071813</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>126.9996779</v>
+        <v>126.9997071</v>
       </c>
       <c r="O18" t="n">
-        <v>37.5832058</v>
+        <v>37.5701125</v>
       </c>
       <c r="P18" t="n">
-        <v>1509146916</v>
+        <v>36336607</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>에이스아웃도어</t>
+          <t>슬로우스테디클럽 살롱 안국점</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1786,16 +1786,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>등산,아웃도어</t>
+          <t>캐주얼웨어</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>625</v>
+        <v>315</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1809,12 +1809,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>율곡로</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>224-1 2층</t>
+          <t>84 가든타워 2층</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1824,33 +1824,33 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>02-2247-8848</t>
+          <t>02-725-1301</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/11533341/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142583632</t>
+          <t>https://pcmap.place.naver.com/place/35896210/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9884625&amp;y=37.5770962&amp;timestamp=202309071813</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>127.0026386</v>
+        <v>126.9884625</v>
       </c>
       <c r="O19" t="n">
-        <v>37.570757</v>
+        <v>37.5770962</v>
       </c>
       <c r="P19" t="n">
-        <v>11533341</v>
+        <v>35896210</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>로우로우 광장시장점</t>
+          <t>실크루트</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1860,16 +1860,16 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>가방,핸드백</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1883,12 +1883,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>창경궁로</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>88 광장시장 239호</t>
+          <t>183 효성주얼리시티 2층 91호</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1898,33 +1898,33 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>02-2269-2891</t>
+          <t>02-2273-9285</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/36336607/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142589412</t>
+          <t>https://pcmap.place.naver.com/place/20027434/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9982449&amp;y=37.5714859&amp;timestamp=202309071813</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>126.9997071</v>
+        <v>126.99832</v>
       </c>
       <c r="O20" t="n">
-        <v>37.5701125</v>
+        <v>37.571447</v>
       </c>
       <c r="P20" t="n">
-        <v>36336607</v>
+        <v>20027434</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>돌실나이 인사점 / 창의문화 갤러리 낳이</t>
+          <t>화려한정원한복</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1939,11 +1939,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>194</v>
+        <v>617</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1957,12 +1957,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>인사동길</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>35 돌실나이 인사점</t>
+          <t>183 효성주얼리시티 지하1층J045호</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1972,33 +1972,33 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0507-1490-2272</t>
+          <t>0507-1443-1379</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/11572639/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142594680</t>
+          <t>https://pcmap.place.naver.com/place/34646936/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9986593&amp;y=37.5714899&amp;timestamp=202309071813</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>126.9853812</v>
+        <v>126.99832</v>
       </c>
       <c r="O21" t="n">
-        <v>37.5736055</v>
+        <v>37.571447</v>
       </c>
       <c r="P21" t="n">
-        <v>11572639</v>
+        <v>34646936</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>스파오 현대백화점면세점 동대문점</t>
+          <t>여성 빅사이즈 하이럭키 밀리오레</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2008,16 +2008,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>캐주얼웨어</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>275 10층</t>
+          <t>263 밀리오레빌딩 3층 222호</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2046,33 +2046,33 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>02-3668-8204</t>
+          <t>0507-1368-0264</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1965923383/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142599868</t>
+          <t>https://pcmap.place.naver.com/place/1418900451/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0084618&amp;y=37.5681191&amp;timestamp=202309071813</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>127.0087831</v>
+        <v>127.0084618</v>
       </c>
       <c r="O22" t="n">
-        <v>37.5688912</v>
+        <v>37.5681191</v>
       </c>
       <c r="P22" t="n">
-        <v>1965923383</v>
+        <v>1418900451</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>연인채</t>
+          <t>GU샵 동대문두타몰</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2082,16 +2082,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>한복</t>
+          <t>캐주얼웨어</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>330</v>
+        <v>137</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -2100,17 +2100,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>장충단로</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>183 효성주얼리시티 지하1층 326호</t>
+          <t>275 B2층</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2120,33 +2120,33 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>02-2274-7844</t>
+          <t>02-3398-4912</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/38500829/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142605037</t>
+          <t>https://pcmap.place.naver.com/place/1694940398/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0087831&amp;y=37.5688912&amp;timestamp=202309071813</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>126.99832</v>
+        <v>127.0087831</v>
       </c>
       <c r="O23" t="n">
-        <v>37.571447</v>
+        <v>37.5688912</v>
       </c>
       <c r="P23" t="n">
-        <v>38500829</v>
+        <v>1694940398</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>신자매만물상 대학로점</t>
+          <t>디엠빈티지 동묘1호점</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2156,16 +2156,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>구제의류</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>330</v>
+        <v>32</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -2179,12 +2179,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>창경궁로</t>
+          <t>난계로27길</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>234 동화빌딩 1층 104호</t>
+          <t>72 1층</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2194,33 +2194,33 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0507-1345-7406</t>
+          <t>0507-1382-6766</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1891743621/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142610666</t>
+          <t>https://pcmap.place.naver.com/place/1392063263/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.01919111979872&amp;y=37.57261695841816&amp;timestamp=202309071813</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>126.9985547</v>
+        <v>127.0191927</v>
       </c>
       <c r="O24" t="n">
-        <v>37.5824974</v>
+        <v>37.5726931</v>
       </c>
       <c r="P24" t="n">
-        <v>1891743621</v>
+        <v>1392063263</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>트레일헤드 종로5가점</t>
+          <t>수설화 인사동점</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2230,16 +2230,16 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>등산,아웃도어</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2253,12 +2253,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>동호로38길</t>
+          <t>인사동길</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>24 1층</t>
+          <t>44 1층 수설화</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2268,33 +2268,33 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>070-4118-9714</t>
+          <t>02-6406-0221</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/35592973/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142616439</t>
+          <t>https://pcmap.place.naver.com/place/1093197703/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9848766&amp;y=37.5742648&amp;timestamp=202309071813</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>127.003586</v>
+        <v>126.9848766</v>
       </c>
       <c r="O25" t="n">
-        <v>37.5703514</v>
+        <v>37.5742648</v>
       </c>
       <c r="P25" t="n">
-        <v>35592973</v>
+        <v>1093197703</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>슬로우스테디클럽 살롱 안국점</t>
+          <t>룰루레몬 롯데백화점 명동 스토어</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2304,16 +2304,16 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>캐주얼웨어</t>
+          <t>기능성의류</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2322,17 +2322,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>율곡로</t>
+          <t>남대문로</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>84 가든타워 2층</t>
+          <t>81 롯데백화점 본점 3층</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2342,33 +2342,33 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>02-725-1301</t>
+          <t>0507-1338-3329</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/35896210/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142622286</t>
+          <t>https://pcmap.place.naver.com/place/1452434860/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.982027621&amp;y=37.565415451&amp;timestamp=202309071813</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>126.9884625</v>
+        <v>126.9818075</v>
       </c>
       <c r="O26" t="n">
-        <v>37.5770962</v>
+        <v>37.564764</v>
       </c>
       <c r="P26" t="n">
-        <v>35896210</v>
+        <v>1452434860</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>캉골 현대시티아울렛동대문점</t>
+          <t>동대문빅사이즈 아이몽 밀리오레</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2378,16 +2378,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>종합패션</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>316</v>
+        <v>88</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2401,12 +2401,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>장충단로13길</t>
+          <t>장충단로</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>20 현대시티아울렛 5층</t>
+          <t>263 밀리오레 1층 44호</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2416,33 +2416,33 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>02-2283-2518</t>
+          <t>02-3393-2200</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/38219702/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142627391</t>
+          <t>https://pcmap.place.naver.com/place/1628485345/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0084618&amp;y=37.5681191&amp;timestamp=202309071813</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>127.0076665</v>
+        <v>127.0084618</v>
       </c>
       <c r="O27" t="n">
-        <v>37.5687346</v>
+        <v>37.5681191</v>
       </c>
       <c r="P27" t="n">
-        <v>38219702</v>
+        <v>1628485345</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>니트</t>
+          <t>페리쉬 시청점</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2452,16 +2452,16 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>구제의류</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2475,12 +2475,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>장충단로</t>
+          <t>다동길</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>275 5층 20호</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2490,33 +2490,33 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>010-8693-1735</t>
+          <t>02-414-6646</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1770969263/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142632487</t>
+          <t>https://pcmap.place.naver.com/place/31850126/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9798508&amp;y=37.5678468&amp;timestamp=202309071813</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>127.0087831</v>
+        <v>126.9798981</v>
       </c>
       <c r="O28" t="n">
-        <v>37.5688912</v>
+        <v>37.567837</v>
       </c>
       <c r="P28" t="n">
-        <v>1770969263</v>
+        <v>31850126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>루이비통 롯데백화점본점 롯데백화점본점</t>
+          <t>트레일헤드 종로5가점</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2526,16 +2526,16 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>종합패션</t>
+          <t>등산,아웃도어</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2544,17 +2544,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>남대문로</t>
+          <t>동호로38길</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>24 1층</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2564,33 +2564,33 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>070-4118-9714</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1814159970/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142637795</t>
+          <t>https://pcmap.place.naver.com/place/35592973/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0035734&amp;y=37.5703874&amp;timestamp=202309071813</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>126.981707</v>
+        <v>127.003586</v>
       </c>
       <c r="O29" t="n">
-        <v>37.5641952</v>
+        <v>37.5703514</v>
       </c>
       <c r="P29" t="n">
-        <v>1814159970</v>
+        <v>35592973</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>탑텐키즈 현대시티아울렛 동대문점</t>
+          <t>버윅 서울파이낸스센터점</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2600,16 +2600,16 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>유아동복</t>
+          <t>수제화</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>458</v>
+        <v>53</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2623,12 +2623,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>장충단로13길</t>
+          <t>세종대로</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>20 현대시티타워</t>
+          <t>136 파이낸스빌딩 B1 102호</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2638,33 +2638,33 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>02-2283-2842</t>
+          <t>02-318-0511</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1685962752/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142646587</t>
+          <t>https://pcmap.place.naver.com/place/1160519662/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.978273&amp;y=37.5684201&amp;timestamp=202309071813</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>127.0076665</v>
+        <v>126.9782701</v>
       </c>
       <c r="O30" t="n">
-        <v>37.5687346</v>
+        <v>37.5684246</v>
       </c>
       <c r="P30" t="n">
-        <v>1685962752</v>
+        <v>1160519662</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ABC마트 ST 대학로점</t>
+          <t>아크테릭스 롯데백화점 본점</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2674,16 +2674,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>신발</t>
+          <t>등산,아웃도어</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>458</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2692,17 +2692,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>대학로</t>
+          <t>을지로</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>132 에이비씨마트빌딩</t>
+          <t>30 7층 아크테릭스</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2712,33 +2712,33 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>02-743-5100</t>
+          <t>02-772-3688</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/749583449/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142652200</t>
+          <t>https://pcmap.place.naver.com/place/12954122/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9818876&amp;y=37.5653013&amp;timestamp=202309071813</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>127.0021216</v>
+        <v>126.9816208</v>
       </c>
       <c r="O31" t="n">
-        <v>37.5830938</v>
+        <v>37.5654272</v>
       </c>
       <c r="P31" t="n">
-        <v>749583449</v>
+        <v>12954122</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>여성 빅사이즈 하이럭키 밀리오레</t>
+          <t>아르마리오 종로점</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2748,16 +2748,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2766,17 +2766,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>장충단로</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>263 밀리오레빌딩 3층 222호</t>
+          <t>109 2층 아르마리오 종로점</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2786,33 +2786,33 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0507-1368-0264</t>
+          <t>0507-1406-3123</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1418900451/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142657368</t>
+          <t>https://pcmap.place.naver.com/place/1762728322/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9896695&amp;y=37.5705945&amp;timestamp=202309071813</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>127.0084618</v>
+        <v>126.9896688</v>
       </c>
       <c r="O32" t="n">
-        <v>37.5681191</v>
+        <v>37.5705722</v>
       </c>
       <c r="P32" t="n">
-        <v>1418900451</v>
+        <v>1762728322</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>에르메스 롯데면세점본점</t>
+          <t>엠핀 종로점</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>가방,핸드백</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -2840,17 +2840,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>을지로</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30-1 1층</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2860,33 +2860,33 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-540-3863</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1051802231/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142662613</t>
+          <t>https://pcmap.place.naver.com/place/1766622777/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98075338586038&amp;y=37.569977331703086&amp;timestamp=202309071813</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>126.9816208</v>
+        <v>126.9808348</v>
       </c>
       <c r="O33" t="n">
-        <v>37.5654272</v>
+        <v>37.569953</v>
       </c>
       <c r="P33" t="n">
-        <v>1051802231</v>
+        <v>1766622777</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>화려한정원</t>
+          <t>ABC마트 GS 동대문두타몰점</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2896,16 +2896,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>한복</t>
+          <t>신발</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>107</v>
+        <v>637</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2914,17 +2914,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>장충단로</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>183 효성주얼리시티 지하1층J045호</t>
+          <t>275 두타몰 지하1층</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2934,33 +2934,33 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0507-1443-1379</t>
+          <t>02-3398-4230</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/34646936/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142670511</t>
+          <t>https://pcmap.place.naver.com/place/1130526048/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00877510000001&amp;y=37.568949700000005&amp;timestamp=202309071813</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>126.99832</v>
+        <v>127.0087831</v>
       </c>
       <c r="O34" t="n">
-        <v>37.571447</v>
+        <v>37.5688912</v>
       </c>
       <c r="P34" t="n">
-        <v>34646936</v>
+        <v>1130526048</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>루아앤로니</t>
+          <t>루스</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2970,16 +2970,16 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>구제의류</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>617</v>
+        <v>81</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2993,12 +2993,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>종로60길</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>266 동대문종합시장 B동 5087,5088,5089호</t>
+          <t>32 1층</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3008,33 +3008,33 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0507-1373-1242</t>
+          <t>0507-1330-6575</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1460908747/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142676258</t>
+          <t>https://pcmap.place.naver.com/place/1816099256/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0189883&amp;y=37.572309899999986&amp;timestamp=202309071814</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>127.0073136</v>
+        <v>127.0189912</v>
       </c>
       <c r="O35" t="n">
-        <v>37.5706765</v>
+        <v>37.5722974</v>
       </c>
       <c r="P35" t="n">
-        <v>1460908747</v>
+        <v>1816099256</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>엠핀 종로점</t>
+          <t>보니타테일러 종로점</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3044,16 +3044,16 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>39</v>
+        <v>810</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>30-1 1층</t>
+          <t>173</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3082,33 +3082,33 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>02-540-3863</t>
+          <t>02-743-6622</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1766622777/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142681306</t>
+          <t>https://pcmap.place.naver.com/place/417917504/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99698552752417&amp;y=37.570928440419344&amp;timestamp=202309071814</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>126.9808348</v>
+        <v>126.9970972</v>
       </c>
       <c r="O36" t="n">
-        <v>37.569953</v>
+        <v>37.5709805</v>
       </c>
       <c r="P36" t="n">
-        <v>1766622777</v>
+        <v>417917504</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>플랫폼 플레이스 롯데백화점본점</t>
+          <t>크록스 현대시티아울렛동대문점</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3118,16 +3118,16 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>캐주얼웨어</t>
+          <t>신발</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -3141,12 +3141,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>남대문로</t>
+          <t>장충단로13길</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>81 6층</t>
+          <t>20 5층 크록스</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3156,33 +3156,33 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>02-772-3608</t>
+          <t>02-2283-2706</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1962833444/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142686478</t>
+          <t>https://pcmap.place.naver.com/place/38219629/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0076394&amp;y=37.5689831&amp;timestamp=202309071814</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>126.9818075</v>
+        <v>127.0076665</v>
       </c>
       <c r="O37" t="n">
-        <v>37.564764</v>
+        <v>37.5687346</v>
       </c>
       <c r="P37" t="n">
-        <v>1962833444</v>
+        <v>38219629</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>원더플레이스 두타몰점</t>
+          <t>ABC마트 ST 동대문현대아울렛점</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3192,16 +3192,16 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>종합패션</t>
+          <t>신발</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>699</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -3215,12 +3215,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>장충단로</t>
+          <t>장충단로13길</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>20 현대시티아울렛 지하1층</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3230,33 +3230,33 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-2283-2141</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1461463872/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142691905</t>
+          <t>https://pcmap.place.naver.com/place/1690937954/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00768010000002&amp;y=37.5687375&amp;timestamp=202309071814</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>127.0087831</v>
+        <v>127.0076665</v>
       </c>
       <c r="O38" t="n">
-        <v>37.5688912</v>
+        <v>37.5687346</v>
       </c>
       <c r="P38" t="n">
-        <v>1461463872</v>
+        <v>1690937954</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>원더플레이스 서울대학로점</t>
+          <t>ABC마트 ST 대학로점</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>캐주얼웨어</t>
+          <t>신발</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>935</v>
+        <v>0</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -3289,12 +3289,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>대명길</t>
+          <t>대학로</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>28 1층</t>
+          <t>132 에이비씨마트빌딩</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3304,33 +3304,33 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>02-3673-1012</t>
+          <t>02-743-5100</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1198357254/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142700799</t>
+          <t>https://pcmap.place.naver.com/place/749583449/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00206120000001&amp;y=37.5831213&amp;timestamp=202309071814</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>126.9998451</v>
+        <v>127.0021216</v>
       </c>
       <c r="O39" t="n">
-        <v>37.5834877</v>
+        <v>37.5830938</v>
       </c>
       <c r="P39" t="n">
-        <v>1198357254</v>
+        <v>749583449</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>수설화 인사동점</t>
+          <t>루아앤로니</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3340,16 +3340,16 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>한복</t>
+          <t>패션잡화</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>935</v>
+        <v>39</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -3363,12 +3363,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>인사동길</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>44 1층 수설화</t>
+          <t>266 동대문종합시장 B동 5087,5088,5089호</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3378,33 +3378,33 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>02-6406-0221</t>
+          <t>0507-1373-1242</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1093197703/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142706513</t>
+          <t>https://pcmap.place.naver.com/place/1460908747/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00731360000002&amp;y=37.5706765&amp;timestamp=202309071814</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>126.9848766</v>
+        <v>127.0073136</v>
       </c>
       <c r="O40" t="n">
-        <v>37.5742648</v>
+        <v>37.5706765</v>
       </c>
       <c r="P40" t="n">
-        <v>1093197703</v>
+        <v>1460908747</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>디엠빈티지 동묘1호점</t>
+          <t>니트</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3419,11 +3419,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -3432,17 +3432,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>난계로27길</t>
+          <t>장충단로</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>72 1층</t>
+          <t>275 5층 20호</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3452,33 +3452,33 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0507-1382-6766</t>
+          <t>010-8693-1735</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1392063263/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142712078</t>
+          <t>https://pcmap.place.naver.com/place/1770969263/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0087831&amp;y=37.5688912&amp;timestamp=202309071814</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>127.0191927</v>
+        <v>127.0087831</v>
       </c>
       <c r="O41" t="n">
-        <v>37.5726931</v>
+        <v>37.5688912</v>
       </c>
       <c r="P41" t="n">
-        <v>1392063263</v>
+        <v>1770969263</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>레드아이 대학로1호점</t>
+          <t>아스날17</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3488,16 +3488,16 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>셔츠</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -3506,17 +3506,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>대명길</t>
+          <t>을지로</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>5 대학로빌딩 1층 레드아이 대학로점</t>
+          <t>51 교원내외빌딩b1,아스날17</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3526,33 +3526,33 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0507-1344-0547</t>
+          <t>0507-1366-7717</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/32397858/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142717450</t>
+          <t>https://pcmap.place.naver.com/place/1676173690/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9836985&amp;y=37.5664963&amp;timestamp=202309071814</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>127.0011668</v>
+        <v>126.9836985</v>
       </c>
       <c r="O42" t="n">
-        <v>37.5835326</v>
+        <v>37.5664963</v>
       </c>
       <c r="P42" t="n">
-        <v>32397858</v>
+        <v>1676173690</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>de r geist, de r zeit</t>
+          <t>한양주단</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3562,16 +3562,16 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -3580,17 +3580,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>청계천로</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>216 2층</t>
+          <t>135 2층 한양주단</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3600,27 +3600,27 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0507-1380-8102</t>
+          <t>02-2266-1513</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1090872502/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142722554</t>
+          <t>https://pcmap.place.naver.com/place/11844432/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9924864&amp;y=37.5707527&amp;timestamp=202309071814</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>127.0016064</v>
+        <v>126.9924737</v>
       </c>
       <c r="O43" t="n">
-        <v>37.5692916</v>
+        <v>37.5707422</v>
       </c>
       <c r="P43" t="n">
-        <v>1090872502</v>
+        <v>11844432</v>
       </c>
     </row>
     <row r="44">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3679,12 +3679,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37807032/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142728114</t>
+          <t>https://pcmap.place.naver.com/place/37807032/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98654103675632&amp;y=37.57233232311863&amp;timestamp=202309071814</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -3700,7 +3700,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>젠틀몬스터 롯데백화점 본점</t>
+          <t>동대문153</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>선글라스</t>
+          <t>패션잡화</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3728,17 +3728,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>남대문로</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>81 본점 3층</t>
+          <t>266 A동 5층 5174호, 5175호, B동 5213호, 5214호</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3748,33 +3748,33 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>02-772-3251</t>
+          <t>0507-1355-5364</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/36219754/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142733845</t>
+          <t>https://pcmap.place.naver.com/place/1981346842/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0082578&amp;y=37.5703093&amp;timestamp=202309071814</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>126.9818075</v>
+        <v>127.0073136</v>
       </c>
       <c r="O45" t="n">
-        <v>37.564764</v>
+        <v>37.5706765</v>
       </c>
       <c r="P45" t="n">
-        <v>36219754</v>
+        <v>1981346842</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>리틀그라운드 현대시티아울렛동대문점</t>
+          <t>루다</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3784,16 +3784,16 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>유아동복</t>
+          <t>보세의류</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3802,17 +3802,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>장충단로13길</t>
+          <t>수표로28길</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>20 현대시티아울렛 8층</t>
+          <t>21-7</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3822,33 +3822,33 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>02-2283-2812</t>
+          <t>0507-1305-2163</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1785475089/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142738964</t>
+          <t>https://pcmap.place.naver.com/place/1656444201/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9897164&amp;y=37.5732419&amp;timestamp=202309071814</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>127.0076665</v>
+        <v>126.9897161</v>
       </c>
       <c r="O46" t="n">
-        <v>37.5687346</v>
+        <v>37.5732262</v>
       </c>
       <c r="P46" t="n">
-        <v>1785475089</v>
+        <v>1656444201</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>샤넬롯데면세점본점</t>
+          <t>베틀가</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3858,16 +3858,16 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>가방,핸드백</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3876,17 +3876,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>을지로</t>
+          <t>인사동길</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26-1</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3896,33 +3896,33 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>080-805-9628</t>
+          <t>02-723-4600</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1290044166/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142744372</t>
+          <t>https://pcmap.place.naver.com/place/12086119/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98617644744266&amp;y=37.57315939305294&amp;timestamp=202309071814</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>126.9816208</v>
+        <v>126.9862068</v>
       </c>
       <c r="O47" t="n">
-        <v>37.5654272</v>
+        <v>37.5731344</v>
       </c>
       <c r="P47" t="n">
-        <v>1290044166</v>
+        <v>12086119</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>디올 롯데본점 여성</t>
+          <t>HH vintage</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3932,16 +3932,16 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>종합패션</t>
+          <t>구제의류</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1153</v>
+        <v>11</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3950,17 +3950,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>을지로</t>
+          <t>대명길</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>30 롯데백화점 1F</t>
+          <t>34 지층</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3970,33 +3970,33 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>02-726-4224</t>
+          <t>0507-1321-5469</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/36701053/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142749657</t>
+          <t>https://pcmap.place.naver.com/place/1509146916/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99972206476232&amp;y=37.58318829004213&amp;timestamp=202309071814</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>126.9816208</v>
+        <v>126.9996779</v>
       </c>
       <c r="O48" t="n">
-        <v>37.5654272</v>
+        <v>37.5832058</v>
       </c>
       <c r="P48" t="n">
-        <v>36701053</v>
+        <v>1509146916</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ABC마트 GS 동대문두타몰점</t>
+          <t>제이진옴므 종로본점</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4006,16 +4006,16 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>신발</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1153</v>
+        <v>0</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -4024,17 +4024,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>장충단로</t>
+          <t>율곡로</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>275 두타몰 지하1층</t>
+          <t>241-2 수진빌딩</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4044,33 +4044,33 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>02-3398-4230</t>
+          <t>0507-1362-0949</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1130526048/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142755389</t>
+          <t>https://pcmap.place.naver.com/place/13470499/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00548735808003&amp;y=37.575492494096096&amp;timestamp=202309071815</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>127.0087831</v>
+        <v>127.0055361</v>
       </c>
       <c r="O49" t="n">
-        <v>37.5688912</v>
+        <v>37.5754758</v>
       </c>
       <c r="P49" t="n">
-        <v>1130526048</v>
+        <v>13470499</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>럭키팩토리</t>
+          <t>동대문종합시장 한복상가</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4080,16 +4080,16 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>636</v>
+        <v>9</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -4103,12 +4103,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>대명길</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>266 종로 266</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -4118,33 +4118,33 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>02-765-7172</t>
+          <t>02-2262-0114</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1351500236/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142760604</t>
+          <t>https://pcmap.place.naver.com/place/853404651/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0073178&amp;y=37.5707192&amp;timestamp=202309071815</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>127.0003781</v>
+        <v>127.0073136</v>
       </c>
       <c r="O50" t="n">
-        <v>37.5834961</v>
+        <v>37.5706765</v>
       </c>
       <c r="P50" t="n">
-        <v>1351500236</v>
+        <v>853404651</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>아르마리오 종로점</t>
+          <t>실크로드 의류부자재</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4154,16 +4154,16 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>패션잡화</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>109 2층 아르마리오 종로점</t>
+          <t>266 동대문종합시장 A동 5층 5113호 5114호</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4192,27 +4192,27 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0507-1406-3123</t>
+          <t>02-2261-2075</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1762728322/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142765771</t>
+          <t>https://pcmap.place.naver.com/place/1173832207/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0073178&amp;y=37.5707192&amp;timestamp=202309071815</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:06</t>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>126.9896688</v>
+        <v>127.0073136</v>
       </c>
       <c r="O51" t="n">
-        <v>37.5705722</v>
+        <v>37.5706765</v>
       </c>
       <c r="P51" t="n">
-        <v>1762728322</v>
+        <v>1173832207</v>
       </c>
     </row>
   </sheetData>
